--- a/tabelas_template/DISPLAY SAMSUNG - INCELL.xlsx
+++ b/tabelas_template/DISPLAY SAMSUNG - INCELL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D384E53-3811-474F-92E3-65B33D0BEF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29267F5-C9EF-40F3-80D5-7EEA40168EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>DISPLAY SAMSUNG - INCELL</t>
   </si>
@@ -50,9 +50,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -78,9 +75,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -98,9 +92,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -118,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -146,9 +134,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 120,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -194,9 +179,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -214,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -234,9 +213,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -254,9 +230,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -282,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -310,9 +280,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 135,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -330,15 +297,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <t>A605 (A6+)</t>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -356,15 +317,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <t>A750 (A7 2018)</t>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -398,15 +353,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <t>A530 (A8 2018)</t>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -424,15 +373,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <t>A730 (A8+)</t>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -456,9 +399,6 @@
     <t>J120 (J1 2016)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -484,15 +424,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <t>J250 (J2 PRO)</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -510,15 +444,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <t>J300 / J320 (J3 2015-2016)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -536,15 +464,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <t>J400 (J4 2018)</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -562,15 +484,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <t>J500 (J5 2015)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -588,15 +504,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <t>J510 (J5 METAL)</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -622,15 +532,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <t>J530 (J5 PRO)</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -648,15 +552,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <t>J600 (J6 2018)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -674,15 +572,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <t>J700 (J7 2015)</t>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -708,15 +600,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <t>J710 (J7 METAL)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -734,15 +620,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <t>J701 (J7 NEO)</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -768,15 +648,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <t>J730 (J7 PRO)</t>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -794,15 +668,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <t>J810 (J8 2018)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -836,9 +704,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -856,9 +721,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -892,9 +754,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -932,9 +791,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -952,9 +808,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -972,9 +825,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1020,9 +870,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1040,9 +887,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1060,9 +904,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1095,9 +936,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1115,9 +953,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1135,9 +970,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1183,9 +1015,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1203,9 +1032,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1231,9 +1057,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1251,9 +1074,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1287,9 +1107,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 140,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1305,15 +1122,15 @@
       </rPr>
       <t>C/ARO</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 75,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1406,14 +1223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,6 +1237,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1721,547 +1541,547 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.1" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B37" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.95" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B40" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B42" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="B44" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B46" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B48" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B50" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.95" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B52" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B54" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B56" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="B58" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="7">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="B60" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="B65" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.95" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="B68" s="7">
         <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
